--- a/data/steel/steel_simplified_factory.xlsx
+++ b/data/steel/steel_simplified_factory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83B4704-1A9A-8448-9CEE-3E9BEF620134}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC562ED4-56F5-8E41-8FA3-55747C2D7139}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="460" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1260" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="49">
   <si>
     <t>Inflow</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>simple_power</t>
+  </si>
+  <si>
+    <t>fossil fuel</t>
+  </si>
+  <si>
+    <t>primary fuel</t>
   </si>
 </sst>
 </file>
@@ -684,10 +690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,13 +781,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -798,18 +804,18 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
@@ -824,33 +830,33 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
@@ -865,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>37</v>
@@ -876,59 +882,59 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -954,7 +960,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -980,7 +986,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1006,15 +1012,15 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1031,12 +1037,30 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
@@ -1045,6 +1069,14 @@
       <c r="G14" s="2"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/steel/steel_simplified_factory.xlsx
+++ b/data/steel/steel_simplified_factory.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC562ED4-56F5-8E41-8FA3-55747C2D7139}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1260" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1260" windowWidth="26520" windowHeight="16515"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
     <sheet name="connections" sheetId="1" r:id="rId2"/>
     <sheet name="steel" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -179,10 +178,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -227,20 +233,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,21 +559,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -582,7 +590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -596,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -610,7 +618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -624,7 +632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -638,7 +646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -652,7 +660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -666,7 +674,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -680,8 +688,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -689,30 +700,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -750,7 +761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -776,7 +787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -802,7 +813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -828,7 +839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -854,7 +865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -880,7 +891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -906,7 +917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -932,7 +943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -958,7 +969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -984,7 +995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1010,7 +1021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -1036,7 +1047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -1062,7 +1073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="6"/>
@@ -1070,7 +1081,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="6"/>
@@ -1078,27 +1089,48 @@
       <c r="H15" s="1"/>
       <c r="I15" s="2"/>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="H19" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1120,7 +1152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1131,7 +1163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1142,12 +1174,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>

--- a/data/steel/steel_simplified_factory.xlsx
+++ b/data/steel/steel_simplified_factory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037A6DCC-0F9F-A44C-956D-C4A6D5F9F1EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1260" windowWidth="26520" windowHeight="16515"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="52">
   <si>
     <t>Inflow</t>
   </si>
@@ -173,12 +174,21 @@
   </si>
   <si>
     <t>primary fuel</t>
+  </si>
+  <si>
+    <t>secondary fuel</t>
+  </si>
+  <si>
+    <t>secondary biofuel</t>
+  </si>
+  <si>
+    <t>biofuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -248,7 +258,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,21 +569,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -590,7 +600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -604,7 +614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -618,7 +628,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -632,7 +642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -646,7 +656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -660,7 +670,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -674,7 +684,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -688,10 +698,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E10" s="1"/>
     </row>
   </sheetData>
@@ -700,30 +710,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -761,7 +771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -787,7 +797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -813,7 +823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -839,7 +849,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -865,7 +875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -891,7 +901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -917,7 +927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -943,7 +953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -969,7 +979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -995,7 +1005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1021,7 +1031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -1047,7 +1057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -1073,42 +1083,239 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="6"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="F18" s="6"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="6"/>
-      <c r="H19" s="1"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1116,21 +1323,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1163,7 +1370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1174,12 +1381,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>

--- a/data/steel/steel_simplified_factory.xlsx
+++ b/data/steel/steel_simplified_factory.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037A6DCC-0F9F-A44C-956D-C4A6D5F9F1EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C90A20-6859-CA4B-B20E-DA50CF0C5AB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
     <sheet name="connections" sheetId="1" r:id="rId2"/>
     <sheet name="steel" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,7 +714,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/steel/steel_simplified_factory.xlsx
+++ b/data/steel/steel_simplified_factory.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C90A20-6859-CA4B-B20E-DA50CF0C5AB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -188,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -258,7 +257,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -569,21 +568,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -600,7 +599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -614,7 +613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -628,7 +627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -642,7 +641,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -656,7 +655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -670,7 +669,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -684,7 +683,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -698,10 +697,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
     </row>
   </sheetData>
@@ -710,30 +709,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -771,7 +770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -797,7 +796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -823,7 +822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -849,7 +848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -875,7 +874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -901,7 +900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -927,7 +926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -953,7 +952,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -979,7 +978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1031,7 +1030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -1187,7 +1186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -1213,7 +1212,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1291,7 +1290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>36</v>
       </c>
@@ -1323,21 +1322,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1359,7 +1358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1381,12 +1380,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>

--- a/data/steel/steel_simplified_factory.xlsx
+++ b/data/steel/steel_simplified_factory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED1D360-83B8-904A-8EAD-7C0470E056EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="52">
   <si>
     <t>Inflow</t>
   </si>
@@ -187,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -257,7 +258,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -568,21 +569,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -599,7 +600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -613,7 +614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -627,7 +628,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -641,7 +642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -655,7 +656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -669,7 +670,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -683,7 +684,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -697,10 +698,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E10" s="1"/>
     </row>
   </sheetData>
@@ -709,30 +710,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -770,7 +771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -796,7 +797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -822,7 +823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -848,7 +849,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -874,7 +875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -900,7 +901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -926,7 +927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -952,7 +953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -978,7 +979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
@@ -1238,12 +1239,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1261,58 +1262,6 @@
         <v>39</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1322,21 +1271,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1358,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1369,7 +1318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1380,12 +1329,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>

--- a/data/steel/steel_simplified_factory.xlsx
+++ b/data/steel/steel_simplified_factory.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED1D360-83B8-904A-8EAD-7C0470E056EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
     <sheet name="connections" sheetId="1" r:id="rId2"/>
     <sheet name="steel" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -188,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -258,7 +257,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -569,21 +568,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -600,7 +599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -614,7 +613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -628,7 +627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -642,7 +641,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -656,7 +655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -670,7 +669,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -684,7 +683,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -698,10 +697,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
     </row>
   </sheetData>
@@ -710,30 +709,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -771,7 +770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -797,7 +796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -823,7 +822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -849,7 +848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -875,7 +874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -901,7 +900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -927,7 +926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -953,7 +952,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -979,7 +978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1031,7 +1030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -1187,7 +1186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -1213,7 +1212,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -1271,21 +1270,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1307,7 +1306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1329,12 +1328,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
